--- a/MikeKwonProject2TestCases.xlsx
+++ b/MikeKwonProject2TestCases.xlsx
@@ -26,9 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
-    <t>Instagram</t>
-  </si>
-  <si>
     <t>Test Case</t>
   </si>
   <si>
@@ -36,9 +33,6 @@
   </si>
   <si>
     <t>User Story</t>
-  </si>
-  <si>
-    <t>Michael Kwon - Test Case Lab - 2/4/16</t>
   </si>
   <si>
     <t>Conduct Search</t>
@@ -141,6 +135,12 @@
   </si>
   <si>
     <t>As a User, I can make decisions based off my team's performance and immediately apply those lessons to a new game</t>
+  </si>
+  <si>
+    <t>Michael Kwon - Project 2 Test Cases</t>
+  </si>
+  <si>
+    <t>Project 2 - Fantasy Football Simulator</t>
   </si>
 </sst>
 </file>
@@ -547,176 +547,176 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="2" customWidth="1"/>
-    <col min="2" max="3" width="39.140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="43.5703125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="7"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
       <c r="B13" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="7"/>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
       <c r="B16" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="51" x14ac:dyDescent="0.25">
       <c r="A17" s="7"/>
       <c r="B17" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
